--- a/Document/Class Diagram/Class diagram.xlsx
+++ b/Document/Class Diagram/Class diagram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanvinh\Documents\GitHub\ISDProject\Document\Class Diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Documents\GitHub\ISDProject\Document\Class Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -93,17 +93,17 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>28</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>94</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>87</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
+                  <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -416,11 +416,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -431,7 +431,7 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId3">
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId3">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -441,17 +441,17 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>31</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
